--- a/biology/Zoologie/Alcyonium_glomeratum/Alcyonium_glomeratum.xlsx
+++ b/biology/Zoologie/Alcyonium_glomeratum/Alcyonium_glomeratum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alcyon rouge
 Alcyonium glomeratum, l’Alcyon rouge, est une espèce de cnidaires de la famille des Alcyoniidés.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La répartition de l'espèce couvre la zone atlantique du Nord-Est (côtes européennes) mais se trouve aussi sur la côte Est des Émirats arabes unis.
 </t>
@@ -569,11 +585,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Alcyonium glomeratum (Hassall, 1843)[1].
-L'espèce a été initialement classée dans le genre Alcyonidium sous le protonyme Alcyonidium glomeratum Hassall, 1843[1],[2].
-Alcyonium glomeratum a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Alcyonium glomeratum (Hassall, 1843).
+L'espèce a été initialement classée dans le genre Alcyonidium sous le protonyme Alcyonidium glomeratum Hassall, 1843,.
+Alcyonium glomeratum a pour synonymes :
 Alcyonidium glomeratum Hassall, 1843
 Lobularia glomerata (Hassall, 1843)
 Rhodophyton couchii Gray, 1865</t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Arthur Hill Hassall, « Remarks on three species of Marine Zoophytes », Annals and Magazine of Natural History, Londres, Taylor &amp; Francis, vol. 11, no 68,‎ 1er février 1843, p. 111-113 (ISSN 0374-5481, OCLC 1481361, DOI 10.1080/03745484309445271, lire en ligne)</t>
         </is>
